--- a/cleansky_LMSM/file_output/vol_data_Aircraft_A320_1258_158.xlsx
+++ b/cleansky_LMSM/file_output/vol_data_Aircraft_A320_1258_158.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14:52:32.047098</t>
+          <t>09:22:45.439158</t>
         </is>
       </c>
       <c r="G2" t="n">

--- a/cleansky_LMSM/file_output/vol_data_Aircraft_A320_1258_158.xlsx
+++ b/cleansky_LMSM/file_output/vol_data_Aircraft_A320_1258_158.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09:22:45.439158</t>
+          <t>10:41:23.866337</t>
         </is>
       </c>
       <c r="G2" t="n">
